--- a/medicine/Enfance/Christine_Ponsard/Christine_Ponsard.xlsx
+++ b/medicine/Enfance/Christine_Ponsard/Christine_Ponsard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christine Ponsard, née à Suresnes le 20 avril 1956 et morte à Pierre-Bénite le 16 février 2004[1], est une chrétienne engagée, auteure d'ouvrages de spiritualité pour jeunes et adultes, journaliste, scénariste de bande dessinée. Elle est primée plusieurs fois, avec Jean-François Kieffer, pour L'Évangile pour les enfants en bandes dessinées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Ponsard, née à Suresnes le 20 avril 1956 et morte à Pierre-Bénite le 16 février 2004, est une chrétienne engagée, auteure d'ouvrages de spiritualité pour jeunes et adultes, journaliste, scénariste de bande dessinée. Elle est primée plusieurs fois, avec Jean-François Kieffer, pour L'Évangile pour les enfants en bandes dessinées.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christine Delorme naît le 20 avril 1956 et grandit au sein d'une famille catholique à Versailles[2]. Elle devient « jeannette » aux Guides de France, puis guide aux Guides d'Europe. Elle reste impliquée dans le mouvement scout, devenant « cheftaine » de compagnie, chantant dans la chorale[2], puis devenant commissaire nationale de 1987 à 1991[3],[4].
-Elle entreprend des études de droit à l'université Paris XI et deviendra professeur[2]. Malade à 20 ans d'un cancer, la maladie de Hodgkin, elle en guérit[2]. Elle rencontre Christian Ponsard lors d'un camp scout et l'épouse en 1982. Ils ne peuvent pas avoir d'enfant, et adoptent trois enfants[2]. Son mari est magistrat, ils habitent successivement Nantes, Arras, Poitiers, Châteauroux, Lyon[5]. Elle s'efforce d'aller à la messe tous les jours, et d'être fidèle à la prière quotidienne[5].
-Christine Ponsard s'intéresse à la catéchèse, et dispense le catéchisme à des enfants de son entourage[2]. Elle publie en 1984 son premier livre, Dieu nous aime, qui est diffusé par Téqui à plus de cent mille exemplaires[2]. Devenue journaliste à Famille chrétienne, elle y est responsable de la chronique « la foi en famille »[6] et y devient en 1992 rédactrice en chef pour les pages religieuses, le cahier central[4],[7]. Elle travaille au journal le lundi, et depuis son domicile les autres jours[5]. Elle entretient une large correspondance avec ses lecteurs, et manifeste autour d'elle une grande capacité à écouter et encourager ses interlocuteurs[5]. Elle est aussi responsable de la revue Bouton d'or, et collabore également à Terres lointaines et à Maxilien[7].
-Elle publie de 1984 à 2001 une dizaine de livres de spiritualité pour les jeunes et pour la famille[6],[7]. Son écriture est jugée fluide, composée de phrases simples et courtes, percutantes sans blesser[6]. Elle donne également des conférences[6]. Ses contributions, conférences et articles reposent sur une solide doctrine accompagnée de conseils pratiques, en recherchant l'essentiel, avec la paix et le sourire[5].
-Christine Ponsard écrit pour Jean-François Kieffer les textes de ses ouvrages en bande dessinée L'Évangile pour les enfants, en bandes dessinées, récompensé à Angoulême en 2001 puis par le Prix Gabriel en 2003[8] ; Les paraboles de Jésus, en bandes dessinées[9] ; Les miracles de Jésus, en bandes dessinées et Les Actes des Apôtres, en bandes dessinées, qui sont prépubliés dans la revue Bouton d'or puis paraissent en albums de 1999 à 2006.
-Un cancer du pancréas lui est diagnostiqué à l'été 2003, puis les médecins changent d'avis et n'arrivent pas à un diagnostic sûr[5]. Elle meurt le 16 février 2004 après sept mois de maladie[6],[5]. Ses obsèques sont célébrées le 19 février en l'église Saint-Nizier de Lyon[6].
-Il est question d'ouvrir sa cause en béatification, une fois le délai nécessaire écoulé[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Delorme naît le 20 avril 1956 et grandit au sein d'une famille catholique à Versailles. Elle devient « jeannette » aux Guides de France, puis guide aux Guides d'Europe. Elle reste impliquée dans le mouvement scout, devenant « cheftaine » de compagnie, chantant dans la chorale, puis devenant commissaire nationale de 1987 à 1991,.
+Elle entreprend des études de droit à l'université Paris XI et deviendra professeur. Malade à 20 ans d'un cancer, la maladie de Hodgkin, elle en guérit. Elle rencontre Christian Ponsard lors d'un camp scout et l'épouse en 1982. Ils ne peuvent pas avoir d'enfant, et adoptent trois enfants. Son mari est magistrat, ils habitent successivement Nantes, Arras, Poitiers, Châteauroux, Lyon. Elle s'efforce d'aller à la messe tous les jours, et d'être fidèle à la prière quotidienne.
+Christine Ponsard s'intéresse à la catéchèse, et dispense le catéchisme à des enfants de son entourage. Elle publie en 1984 son premier livre, Dieu nous aime, qui est diffusé par Téqui à plus de cent mille exemplaires. Devenue journaliste à Famille chrétienne, elle y est responsable de la chronique « la foi en famille » et y devient en 1992 rédactrice en chef pour les pages religieuses, le cahier central,. Elle travaille au journal le lundi, et depuis son domicile les autres jours. Elle entretient une large correspondance avec ses lecteurs, et manifeste autour d'elle une grande capacité à écouter et encourager ses interlocuteurs. Elle est aussi responsable de la revue Bouton d'or, et collabore également à Terres lointaines et à Maxilien.
+Elle publie de 1984 à 2001 une dizaine de livres de spiritualité pour les jeunes et pour la famille,. Son écriture est jugée fluide, composée de phrases simples et courtes, percutantes sans blesser. Elle donne également des conférences. Ses contributions, conférences et articles reposent sur une solide doctrine accompagnée de conseils pratiques, en recherchant l'essentiel, avec la paix et le sourire.
+Christine Ponsard écrit pour Jean-François Kieffer les textes de ses ouvrages en bande dessinée L'Évangile pour les enfants, en bandes dessinées, récompensé à Angoulême en 2001 puis par le Prix Gabriel en 2003 ; Les paraboles de Jésus, en bandes dessinées ; Les miracles de Jésus, en bandes dessinées et Les Actes des Apôtres, en bandes dessinées, qui sont prépubliés dans la revue Bouton d'or puis paraissent en albums de 1999 à 2006.
+Un cancer du pancréas lui est diagnostiqué à l'été 2003, puis les médecins changent d'avis et n'arrivent pas à un diagnostic sûr. Elle meurt le 16 février 2004 après sept mois de maladie,. Ses obsèques sont célébrées le 19 février en l'église Saint-Nizier de Lyon.
+Il est question d'ouvrir sa cause en béatification, une fois le délai nécessaire écoulé.
 </t>
         </is>
       </c>
@@ -548,11 +562,13 @@
           <t>Distinctions et hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix international de la bande dessinée chrétienne francophone au Festival d'Angoulême 2001 pour L'Évangile pour les enfants en bandes dessinées, avec des dessins de Jean-François Kieffer.
 Prix Jeunesse 2002 des libraires religieux.
-Prix Gabriel 2003 : L'Évangile pour les enfants, par Jean-François Kieffer et Christine Ponsard, éd. Fleurus-Edifa et Vander[8].</t>
+Prix Gabriel 2003 : L'Évangile pour les enfants, par Jean-François Kieffer et Christine Ponsard, éd. Fleurus-Edifa et Vander.</t>
         </is>
       </c>
     </row>
@@ -580,7 +596,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dieu nous aime !, Téqui, 1984.
 Dieu nous aime ! Livre des parents, Téqui, 1985.
